--- a/Bin/resource/excel/Shop.xlsx
+++ b/Bin/resource/excel/Shop.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ARK.net_header\Bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -506,16 +506,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -527,161 +520,20 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -690,47 +542,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,7 +568,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1099,12 +912,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,211 +931,204 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9">
@@ -1339,16 +1145,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
@@ -1365,16 +1171,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
@@ -1391,16 +1197,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12">
@@ -1417,16 +1223,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
@@ -1443,16 +1249,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14">
@@ -1469,16 +1275,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15">
@@ -1495,16 +1301,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
@@ -1521,16 +1327,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17">
@@ -1547,16 +1353,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18">
@@ -1573,16 +1379,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
@@ -1599,16 +1405,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20">
@@ -1625,16 +1431,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21">
@@ -1651,16 +1457,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
@@ -1677,16 +1483,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23">
@@ -1703,16 +1509,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24">
@@ -1729,16 +1535,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
@@ -1755,16 +1561,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26">
@@ -1781,16 +1587,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27">
@@ -1807,16 +1613,16 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
@@ -1833,16 +1639,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29">
@@ -1859,16 +1665,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30">
@@ -1885,16 +1691,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
@@ -1911,16 +1717,16 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32">
@@ -1937,16 +1743,16 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33">
@@ -1963,16 +1769,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
@@ -1989,16 +1795,16 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>69</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35">
@@ -2015,16 +1821,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
@@ -2041,16 +1847,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
       <c r="E37">
@@ -2067,16 +1873,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" t="s">
         <v>78</v>
       </c>
       <c r="E38">
@@ -2093,16 +1899,16 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39">
@@ -2119,16 +1925,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
       <c r="E40">
@@ -2145,16 +1951,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+      <c r="A41" t="s">
         <v>85</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>86</v>
       </c>
       <c r="E41">
@@ -2171,16 +1977,16 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42">
@@ -2197,16 +2003,16 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
@@ -2223,16 +2029,16 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="12" t="s">
+      <c r="A44" t="s">
         <v>91</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44">
@@ -2249,16 +2055,16 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>93</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
@@ -2275,16 +2081,16 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
@@ -2301,16 +2107,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>97</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47">
@@ -2327,16 +2133,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48">
@@ -2353,16 +2159,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
@@ -2379,16 +2185,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50">
@@ -2405,16 +2211,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
@@ -2431,16 +2237,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
@@ -2457,16 +2263,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>109</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53">
@@ -2483,16 +2289,16 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
       <c r="B54">
         <v>7</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" t="s">
         <v>75</v>
       </c>
       <c r="E54">
@@ -2509,16 +2315,16 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s">
         <v>78</v>
       </c>
       <c r="E55">
@@ -2535,16 +2341,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+      <c r="A56" t="s">
         <v>115</v>
       </c>
       <c r="B56">
         <v>9</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" t="s">
         <v>81</v>
       </c>
       <c r="E56">
@@ -2561,16 +2367,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" t="s">
         <v>84</v>
       </c>
       <c r="E57">
@@ -2587,16 +2393,16 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>119</v>
       </c>
       <c r="B58">
         <v>11</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" t="s">
         <v>86</v>
       </c>
       <c r="E58">
@@ -2613,16 +2419,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>121</v>
       </c>
       <c r="B59">
         <v>12</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" t="s">
         <v>123</v>
       </c>
       <c r="E59">
@@ -2639,16 +2445,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>124</v>
       </c>
       <c r="B60">
         <v>13</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" t="s">
         <v>126</v>
       </c>
       <c r="E60">
@@ -2665,16 +2471,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
+      <c r="A61" t="s">
         <v>127</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" t="s">
         <v>129</v>
       </c>
       <c r="E61">
@@ -2691,16 +2497,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
+      <c r="A62" t="s">
         <v>130</v>
       </c>
       <c r="B62">
         <v>15</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" t="s">
         <v>132</v>
       </c>
       <c r="E62">
@@ -2717,16 +2523,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
+      <c r="A63" t="s">
         <v>133</v>
       </c>
       <c r="B63">
         <v>16</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" t="s">
         <v>135</v>
       </c>
       <c r="E63">
@@ -2743,16 +2549,16 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
+      <c r="A64" t="s">
         <v>136</v>
       </c>
       <c r="B64">
         <v>17</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" t="s">
         <v>138</v>
       </c>
       <c r="E64">
@@ -2769,16 +2575,16 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="A65" t="s">
         <v>139</v>
       </c>
       <c r="B65">
         <v>18</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" t="s">
         <v>141</v>
       </c>
       <c r="E65">
@@ -2795,16 +2601,16 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+      <c r="A66" t="s">
         <v>142</v>
       </c>
       <c r="B66">
         <v>19</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" t="s">
         <v>144</v>
       </c>
       <c r="E66">
@@ -2821,16 +2627,16 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
+      <c r="A67" t="s">
         <v>145</v>
       </c>
       <c r="B67">
         <v>20</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" t="s">
         <v>147</v>
       </c>
       <c r="E67">
@@ -2847,16 +2653,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
+      <c r="A68" t="s">
         <v>148</v>
       </c>
       <c r="B68">
         <v>21</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" t="s">
         <v>150</v>
       </c>
       <c r="E68">
@@ -2873,16 +2679,16 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>151</v>
       </c>
       <c r="B69">
         <v>22</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" t="s">
         <v>153</v>
       </c>
       <c r="E69">
@@ -2899,16 +2705,16 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
+      <c r="A70" t="s">
         <v>154</v>
       </c>
       <c r="B70">
         <v>23</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" t="s">
         <v>156</v>
       </c>
       <c r="E70">
@@ -2925,13 +2731,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
